--- a/results/[1_high_electricity_price]_#_inv_capacity.xlsx
+++ b/results/[1_high_electricity_price]_#_inv_capacity.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05473714651097686</v>
+        <v>0.04196996574174678</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0065664</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1909277580357634</v>
+        <v>0.1753293174358236</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374957</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.015662739180184</v>
+        <v>4.971240524274168</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2288035378641591</v>
+        <v>0.1638317379190811</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4612504419642365</v>
+        <v>0.3967673650773713</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.302258840137009</v>
+        <v>10.04944672331908</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1582683272642034</v>
+        <v>0.2004200816152543</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7071155705653867</v>
+        <v>0.8572543212858755</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>17.72828669003717</v>
+        <v>22.18194724873099</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_high_electricity_price]_#_inv_capacity.xlsx
+++ b/results/[1_high_electricity_price]_#_inv_capacity.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04196996574174678</v>
+        <v>0.04196996574174687</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.971240524274168</v>
+        <v>4.971240524274166</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.04944672331908</v>
+        <v>10.04944672331906</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2004200816152543</v>
+        <v>0.2004200816152551</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.18194724873099</v>
+        <v>22.18194724873102</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_high_electricity_price]_#_inv_capacity.xlsx
+++ b/results/[1_high_electricity_price]_#_inv_capacity.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,18 +481,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04196996574174687</v>
+        <v>0.04115694225208257</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -504,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1753293174358236</v>
+        <v>0.1757516090751534</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -516,10 +546,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4283685839552924</v>
       </c>
       <c r="J2" t="n">
-        <v>4.971240524274166</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.2803043</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0440719</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.795605686019456</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.667772228729117</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,18 +632,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1638317379190811</v>
+        <v>0.1585344555128686</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3967673650773713</v>
+        <v>0.4005042547873479</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -619,10 +697,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.2784753552091423</v>
       </c>
       <c r="J2" t="n">
-        <v>10.04944672331906</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.02881246880348</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1465467666666667</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9.689150144639569</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.284698351212731</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,18 +783,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2004200816152551</v>
+        <v>0.2332978251889833</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8572543212858755</v>
+        <v>0.8506693919410526</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -722,10 +848,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.384148101678935</v>
       </c>
       <c r="J2" t="n">
-        <v>22.18194724873102</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.021037366666667</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.321301302254336</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>19.29991338962527</v>
+      </c>
+      <c r="P2" t="n">
+        <v>18.23332120443482</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,12 +934,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -828,6 +1002,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -842,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,12 +1085,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -931,6 +1153,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -945,7 +1185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,12 +1236,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -1034,6 +1304,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[1_high_electricity_price]_#_inv_capacity.xlsx
+++ b/results/[1_high_electricity_price]_#_inv_capacity.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,15 +506,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -546,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4283685839552924</v>
+        <v>0.4283685839552923</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -561,13 +556,10 @@
         <v>0.0440719</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.795605686019456</v>
       </c>
       <c r="O2" t="n">
-        <v>4.795605686019456</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.667772228729117</v>
+        <v>3.667772228729111</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,15 +649,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -673,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1585344555128686</v>
+        <v>0.1585344555128689</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -697,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2784753552091423</v>
+        <v>0.2784753552091422</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +699,10 @@
         <v>0.1465467666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.689150144639569</v>
       </c>
       <c r="O2" t="n">
-        <v>9.689150144639569</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.284698351212731</v>
+        <v>4.284698351212751</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,15 +792,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -824,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2332978251889833</v>
+        <v>0.2332978251889868</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -836,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8506693919410526</v>
+        <v>0.8506693919410562</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -863,13 +842,10 @@
         <v>0.321301302254336</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>19.29991338962492</v>
       </c>
       <c r="O2" t="n">
-        <v>19.29991338962527</v>
-      </c>
-      <c r="P2" t="n">
-        <v>18.23332120443482</v>
+        <v>18.23332120443487</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,15 +935,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1017,9 +988,6 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1034,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,15 +1078,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1168,9 +1131,6 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1185,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,15 +1221,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1319,9 +1274,6 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
